--- a/biology/Botanique/Berthe_de_Béhague/Berthe_de_Béhague.xlsx
+++ b/biology/Botanique/Berthe_de_Béhague/Berthe_de_Béhague.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Berthe_de_B%C3%A9hague</t>
+          <t>Berthe_de_Béhague</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie-Julie-Pamphile-Berthe de Béhague,  marquise de Ganay, née à Paris (VIIe) le 1er juin 1868 et morte à Paris (XVIe) le 23 octobre 1940, est une salonnière, mécène, philanthrope et paysagiste française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Berthe_de_B%C3%A9hague</t>
+          <t>Berthe_de_Béhague</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fille aînée du comte Octave de Béhague et de la comtesse, née Fanny-Laure de Haber (fille de Samuel de Haber et remariée à James de Kerjégu), Berthe de Béhague épouse, le 3 octobre 1887 à Paris (VIIIe) puis religieusement le lendemain à l'église Saint-Philippe-du-Roule, Charles Anne Jean, marquis de Ganay (1861-1948), officier de cavalerie, vice-président du Conseil général de Seine-et-Oise et président de la Société d'Encouragement. Le couple aura quatre fils :
 Hubert (1888-1974), collectionneur d'art et administrateur de sociétés (SFFC, etc), membre du Conseil des Musées nationaux, vice-président de la Société des amis du Louvre, président Polo de Paris, du golf de Granville et du golf de Fontainebleau, marié à Rosita Bemberg, petite-fille d'Otto Bemberg ;
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Berthe_de_B%C3%A9hague</t>
+          <t>Berthe_de_Béhague</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,9 +569,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le rosiériste Pierre Guillot lui dédie une rose hybride de thé de couleur rose, baptisée 'Marquise de Ganay' en 1909[1].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le rosiériste Pierre Guillot lui dédie une rose hybride de thé de couleur rose, baptisée 'Marquise de Ganay' en 1909.</t>
         </is>
       </c>
     </row>
